--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Pthlh-Pth2r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Pthlh-Pth2r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,25 +525,25 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.1048226666666667</v>
+        <v>0.2032693333333333</v>
       </c>
       <c r="H2">
-        <v>0.314468</v>
+        <v>0.609808</v>
       </c>
       <c r="I2">
-        <v>0.005423866093972307</v>
+        <v>0.01014574830092973</v>
       </c>
       <c r="J2">
-        <v>0.005423866093972307</v>
+        <v>0.01014574830092973</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.09745433333333332</v>
+        <v>0.01042033333333333</v>
       </c>
       <c r="N2">
-        <v>0.292363</v>
+        <v>0.031261</v>
       </c>
       <c r="O2">
-        <v>0.588197541892248</v>
+        <v>0.02238908055155877</v>
       </c>
       <c r="P2">
-        <v>0.588197541892248</v>
+        <v>0.02238908055155877</v>
       </c>
       <c r="Q2">
-        <v>0.01021542309822222</v>
+        <v>0.002118134209777777</v>
       </c>
       <c r="R2">
-        <v>0.09193880788399998</v>
+        <v>0.019063207888</v>
       </c>
       <c r="S2">
-        <v>0.003190304704027219</v>
+        <v>0.0002271539759653562</v>
       </c>
       <c r="T2">
-        <v>0.003190304704027219</v>
+        <v>0.0002271539759653562</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,25 +587,25 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.1048226666666667</v>
+        <v>0.2032693333333333</v>
       </c>
       <c r="H3">
-        <v>0.314468</v>
+        <v>0.609808</v>
       </c>
       <c r="I3">
-        <v>0.005423866093972307</v>
+        <v>0.01014574830092973</v>
       </c>
       <c r="J3">
-        <v>0.005423866093972307</v>
+        <v>0.01014574830092973</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -614,33 +614,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.06822866666666666</v>
+        <v>0.09745433333333332</v>
       </c>
       <c r="N3">
-        <v>0.204686</v>
+        <v>0.292363</v>
       </c>
       <c r="O3">
-        <v>0.411802458107752</v>
+        <v>0.2093899349763403</v>
       </c>
       <c r="P3">
-        <v>0.411802458107752</v>
+        <v>0.2093899349763404</v>
       </c>
       <c r="Q3">
-        <v>0.00715191078311111</v>
+        <v>0.01980947736711111</v>
       </c>
       <c r="R3">
-        <v>0.06436719704799999</v>
+        <v>0.178285296304</v>
       </c>
       <c r="S3">
-        <v>0.002233561389945087</v>
+        <v>0.002124417577017992</v>
       </c>
       <c r="T3">
-        <v>0.002233561389945087</v>
+        <v>0.002124417577017992</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>0.2032693333333333</v>
+      </c>
+      <c r="H4">
+        <v>0.609808</v>
+      </c>
+      <c r="I4">
+        <v>0.01014574830092973</v>
+      </c>
+      <c r="J4">
+        <v>0.01014574830092973</v>
+      </c>
+      <c r="K4">
         <v>3</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>18.94203033333333</v>
-      </c>
-      <c r="H4">
-        <v>56.826091</v>
-      </c>
-      <c r="I4">
-        <v>0.9801223279566915</v>
-      </c>
-      <c r="J4">
-        <v>0.9801223279566916</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.09745433333333332</v>
+        <v>0.3575456666666667</v>
       </c>
       <c r="N4">
-        <v>0.292363</v>
+        <v>1.072637</v>
       </c>
       <c r="O4">
-        <v>0.588197541892248</v>
+        <v>0.7682209844721009</v>
       </c>
       <c r="P4">
-        <v>0.588197541892248</v>
+        <v>0.7682209844721009</v>
       </c>
       <c r="Q4">
-        <v>1.845982938114777</v>
+        <v>0.07267806929955556</v>
       </c>
       <c r="R4">
-        <v>16.613846443033</v>
+        <v>0.654102623696</v>
       </c>
       <c r="S4">
-        <v>0.5765055440578337</v>
+        <v>0.007794176747946381</v>
       </c>
       <c r="T4">
-        <v>0.5765055440578338</v>
+        <v>0.007794176747946381</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,10 +726,10 @@
         <v>56.826091</v>
       </c>
       <c r="I5">
-        <v>0.9801223279566915</v>
+        <v>0.9454503978493691</v>
       </c>
       <c r="J5">
-        <v>0.9801223279566916</v>
+        <v>0.9454503978493691</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,33 +738,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.06822866666666666</v>
+        <v>0.01042033333333333</v>
       </c>
       <c r="N5">
-        <v>0.204686</v>
+        <v>0.031261</v>
       </c>
       <c r="O5">
-        <v>0.411802458107752</v>
+        <v>0.02238908055155877</v>
       </c>
       <c r="P5">
-        <v>0.411802458107752</v>
+        <v>0.02238908055155877</v>
       </c>
       <c r="Q5">
-        <v>1.292389473602889</v>
+        <v>0.1973822700834444</v>
       </c>
       <c r="R5">
-        <v>11.631505262426</v>
+        <v>1.776440430751</v>
       </c>
       <c r="S5">
-        <v>0.4036167838988579</v>
+        <v>0.02116776511495281</v>
       </c>
       <c r="T5">
-        <v>0.4036167838988579</v>
+        <v>0.02116776511495281</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,22 +776,22 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.279337</v>
+        <v>18.94203033333333</v>
       </c>
       <c r="H6">
-        <v>0.8380110000000001</v>
+        <v>56.826091</v>
       </c>
       <c r="I6">
-        <v>0.01445380594933611</v>
+        <v>0.9454503978493691</v>
       </c>
       <c r="J6">
-        <v>0.01445380594933611</v>
+        <v>0.9454503978493691</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,27 +806,27 @@
         <v>0.292363</v>
       </c>
       <c r="O6">
-        <v>0.588197541892248</v>
+        <v>0.2093899349763403</v>
       </c>
       <c r="P6">
-        <v>0.588197541892248</v>
+        <v>0.2093899349763404</v>
       </c>
       <c r="Q6">
-        <v>0.02722260111033333</v>
+        <v>1.845982938114777</v>
       </c>
       <c r="R6">
-        <v>0.245003409993</v>
+        <v>16.613846443033</v>
       </c>
       <c r="S6">
-        <v>0.00850169313038705</v>
+        <v>0.1979677973290345</v>
       </c>
       <c r="T6">
-        <v>0.008501693130387051</v>
+        <v>0.1979677973290345</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.279337</v>
+        <v>18.94203033333333</v>
       </c>
       <c r="H7">
-        <v>0.8380110000000001</v>
+        <v>56.826091</v>
       </c>
       <c r="I7">
-        <v>0.01445380594933611</v>
+        <v>0.9454503978493691</v>
       </c>
       <c r="J7">
-        <v>0.01445380594933611</v>
+        <v>0.9454503978493691</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.3575456666666667</v>
+      </c>
+      <c r="N7">
+        <v>1.072637</v>
+      </c>
+      <c r="O7">
+        <v>0.7682209844721009</v>
+      </c>
+      <c r="P7">
+        <v>0.7682209844721009</v>
+      </c>
+      <c r="Q7">
+        <v>6.772640863551889</v>
+      </c>
+      <c r="R7">
+        <v>60.953767771967</v>
+      </c>
+      <c r="S7">
+        <v>0.7263148354053818</v>
+      </c>
+      <c r="T7">
+        <v>0.7263148354053818</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.889628</v>
+      </c>
+      <c r="H8">
+        <v>2.668884</v>
+      </c>
+      <c r="I8">
+        <v>0.04440385384970112</v>
+      </c>
+      <c r="J8">
+        <v>0.04440385384970111</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M7">
-        <v>0.06822866666666666</v>
-      </c>
-      <c r="N7">
-        <v>0.204686</v>
-      </c>
-      <c r="O7">
-        <v>0.411802458107752</v>
-      </c>
-      <c r="P7">
-        <v>0.411802458107752</v>
-      </c>
-      <c r="Q7">
-        <v>0.01905879106066666</v>
-      </c>
-      <c r="R7">
-        <v>0.171529119546</v>
-      </c>
-      <c r="S7">
-        <v>0.005952112818949059</v>
-      </c>
-      <c r="T7">
-        <v>0.005952112818949059</v>
+      <c r="M8">
+        <v>0.01042033333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.031261</v>
+      </c>
+      <c r="O8">
+        <v>0.02238908055155877</v>
+      </c>
+      <c r="P8">
+        <v>0.02238908055155877</v>
+      </c>
+      <c r="Q8">
+        <v>0.009270220302666665</v>
+      </c>
+      <c r="R8">
+        <v>0.08343198272399999</v>
+      </c>
+      <c r="S8">
+        <v>0.0009941614606406011</v>
+      </c>
+      <c r="T8">
+        <v>0.0009941614606406011</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.889628</v>
+      </c>
+      <c r="H9">
+        <v>2.668884</v>
+      </c>
+      <c r="I9">
+        <v>0.04440385384970112</v>
+      </c>
+      <c r="J9">
+        <v>0.04440385384970111</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.09745433333333332</v>
+      </c>
+      <c r="N9">
+        <v>0.292363</v>
+      </c>
+      <c r="O9">
+        <v>0.2093899349763403</v>
+      </c>
+      <c r="P9">
+        <v>0.2093899349763404</v>
+      </c>
+      <c r="Q9">
+        <v>0.08669810365466665</v>
+      </c>
+      <c r="R9">
+        <v>0.7802829328919999</v>
+      </c>
+      <c r="S9">
+        <v>0.009297720070287837</v>
+      </c>
+      <c r="T9">
+        <v>0.009297720070287835</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.889628</v>
+      </c>
+      <c r="H10">
+        <v>2.668884</v>
+      </c>
+      <c r="I10">
+        <v>0.04440385384970112</v>
+      </c>
+      <c r="J10">
+        <v>0.04440385384970111</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.3575456666666667</v>
+      </c>
+      <c r="N10">
+        <v>1.072637</v>
+      </c>
+      <c r="O10">
+        <v>0.7682209844721009</v>
+      </c>
+      <c r="P10">
+        <v>0.7682209844721009</v>
+      </c>
+      <c r="Q10">
+        <v>0.3180826363453333</v>
+      </c>
+      <c r="R10">
+        <v>2.862743727108</v>
+      </c>
+      <c r="S10">
+        <v>0.03411197231877268</v>
+      </c>
+      <c r="T10">
+        <v>0.03411197231877267</v>
       </c>
     </row>
   </sheetData>
